--- a/data/UserIds.xlsx
+++ b/data/UserIds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\OtherDev\BatchIdFill\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9DBA68-2194-4B57-869C-6F06C3E204B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60FD9FF-4E44-44AF-B285-048DE4CD5B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amorta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Luks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aliks devil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no   one</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +52,18 @@
   </si>
   <si>
     <t>りく</t>
+  </si>
+  <si>
+    <t>alice devil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xlmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,42 +410,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/UserIds.xlsx
+++ b/data/UserIds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\OtherDev\BatchIdFill\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60FD9FF-4E44-44AF-B285-048DE4CD5B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D916C1C-910C-49FC-87E0-9EF6861D9B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="5535" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>悟空</t>
+    <t>悟  空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +398,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
